--- a/ctrl_unit.xlsx
+++ b/ctrl_unit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Verilog\milestone3\milestone3.srcs\sources_1\new\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Verilog\CompArch\RV32I_Single_Cycle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FDA0A4B-3778-48B6-9710-ECAEC49E17E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5029B6E0-5E55-45A0-A6AF-C45990A325CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -695,12 +695,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -712,9 +706,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -750,7 +741,28 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -758,20 +770,8 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1105,7 +1105,7 @@
   <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="117" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="T40" sqref="T40"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1132,306 +1132,306 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="17"/>
-      <c r="B1" s="18" t="s">
+      <c r="A1" s="14"/>
+      <c r="B1" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="N1" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="O1" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="P1" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="Q1" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="R1" s="18" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="9" t="s">
+      <c r="C2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8" t="s">
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="8">
-        <v>0</v>
-      </c>
-      <c r="L2" s="8">
-        <v>1</v>
-      </c>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8">
-        <v>0</v>
-      </c>
-      <c r="O2" s="8">
-        <v>1</v>
-      </c>
-      <c r="P2" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="8">
-        <v>0</v>
-      </c>
-      <c r="R2" s="22">
+      <c r="I2" s="6"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="6">
+        <v>0</v>
+      </c>
+      <c r="L2" s="6">
+        <v>1</v>
+      </c>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6">
+        <v>0</v>
+      </c>
+      <c r="O2" s="6">
+        <v>1</v>
+      </c>
+      <c r="P2" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>0</v>
+      </c>
+      <c r="R2" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="13" t="s">
+      <c r="C3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12" t="s">
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="12">
-        <v>0</v>
-      </c>
-      <c r="L3" s="12">
-        <v>1</v>
-      </c>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12">
-        <v>1</v>
-      </c>
-      <c r="O3" s="12">
-        <v>1</v>
-      </c>
-      <c r="P3" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="12">
-        <v>0</v>
-      </c>
-      <c r="R3" s="14">
+      <c r="I3" s="9"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="9">
+        <v>0</v>
+      </c>
+      <c r="L3" s="9">
+        <v>1</v>
+      </c>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9">
+        <v>1</v>
+      </c>
+      <c r="O3" s="9">
+        <v>1</v>
+      </c>
+      <c r="P3" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>0</v>
+      </c>
+      <c r="R3" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8" t="s">
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="8">
-        <v>1</v>
-      </c>
-      <c r="L4" s="8">
-        <v>1</v>
-      </c>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8">
-        <v>1</v>
-      </c>
-      <c r="O4" s="8">
-        <v>1</v>
-      </c>
-      <c r="P4" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="8">
-        <v>0</v>
-      </c>
-      <c r="R4" s="22">
+      <c r="I4" s="6"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="6">
+        <v>1</v>
+      </c>
+      <c r="L4" s="6">
+        <v>1</v>
+      </c>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6">
+        <v>1</v>
+      </c>
+      <c r="O4" s="6">
+        <v>1</v>
+      </c>
+      <c r="P4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>0</v>
+      </c>
+      <c r="R4" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12" t="s">
+      <c r="G5" s="9"/>
+      <c r="H5" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="12">
-        <v>1</v>
-      </c>
-      <c r="L5" s="12">
-        <v>1</v>
-      </c>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12">
-        <v>0</v>
-      </c>
-      <c r="O5" s="12">
-        <v>1</v>
-      </c>
-      <c r="P5" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="12">
-        <v>0</v>
-      </c>
-      <c r="R5" s="14">
+      <c r="I5" s="9"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="9">
+        <v>1</v>
+      </c>
+      <c r="L5" s="9">
+        <v>1</v>
+      </c>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9">
+        <v>0</v>
+      </c>
+      <c r="O5" s="9">
+        <v>1</v>
+      </c>
+      <c r="P5" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>0</v>
+      </c>
+      <c r="R5" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24" t="s">
+      <c r="G6" s="28"/>
+      <c r="H6" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="22">
-        <v>1</v>
-      </c>
-      <c r="K6" s="8">
-        <v>1</v>
-      </c>
-      <c r="L6" s="8">
-        <v>0</v>
-      </c>
-      <c r="M6" s="8" t="s">
+      <c r="I6" s="6"/>
+      <c r="J6" s="19">
+        <v>1</v>
+      </c>
+      <c r="K6" s="6">
+        <v>1</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="N6" s="8">
-        <v>1</v>
-      </c>
-      <c r="O6" s="8">
-        <v>1</v>
-      </c>
-      <c r="P6" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="8">
-        <v>0</v>
-      </c>
-      <c r="R6" s="22"/>
+      <c r="N6" s="6">
+        <v>1</v>
+      </c>
+      <c r="O6" s="6">
+        <v>1</v>
+      </c>
+      <c r="P6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>0</v>
+      </c>
+      <c r="R6" s="19"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="10">
+      <c r="J7" s="8">
         <v>0</v>
       </c>
       <c r="K7" s="3">
@@ -1449,33 +1449,33 @@
       <c r="Q7" s="3">
         <v>0</v>
       </c>
-      <c r="R7" s="10"/>
+      <c r="R7" s="8"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5" t="s">
+      <c r="G8" s="26"/>
+      <c r="H8" s="26" t="s">
         <v>110</v>
       </c>
       <c r="I8" s="3"/>
-      <c r="J8" s="10">
+      <c r="J8" s="8">
         <v>0</v>
       </c>
       <c r="K8" s="3">
@@ -1499,19 +1499,19 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-      <c r="R8" s="10"/>
+      <c r="R8" s="8"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="10">
+      <c r="J9" s="8">
         <v>1</v>
       </c>
       <c r="K9" s="3">
@@ -1529,35 +1529,35 @@
       <c r="Q9" s="3">
         <v>0</v>
       </c>
-      <c r="R9" s="10"/>
+      <c r="R9" s="8"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5" t="s">
+      <c r="G10" s="26"/>
+      <c r="H10" s="26" t="s">
         <v>111</v>
       </c>
       <c r="I10" s="3">
         <v>1</v>
       </c>
-      <c r="J10" s="10"/>
+      <c r="J10" s="8"/>
       <c r="K10" s="3">
         <v>1</v>
       </c>
@@ -1579,21 +1579,21 @@
       <c r="Q10" s="3">
         <v>0</v>
       </c>
-      <c r="R10" s="10"/>
+      <c r="R10" s="8"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
       <c r="I11" s="3">
         <v>0</v>
       </c>
-      <c r="J11" s="10"/>
+      <c r="J11" s="8"/>
       <c r="K11" s="3">
         <v>0</v>
       </c>
@@ -1609,35 +1609,35 @@
       <c r="Q11" s="3">
         <v>0</v>
       </c>
-      <c r="R11" s="10"/>
+      <c r="R11" s="8"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5" t="s">
+      <c r="G12" s="26"/>
+      <c r="H12" s="26" t="s">
         <v>112</v>
       </c>
       <c r="I12" s="3">
         <v>0</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="8">
         <v>1</v>
       </c>
       <c r="K12" s="3">
@@ -1661,21 +1661,21 @@
       <c r="Q12" s="3">
         <v>0</v>
       </c>
-      <c r="R12" s="10"/>
+      <c r="R12" s="8"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
       <c r="I13" s="3">
         <v>0</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J13" s="8">
         <v>0</v>
       </c>
       <c r="K13" s="3">
@@ -1699,21 +1699,21 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-      <c r="R13" s="10"/>
+      <c r="R13" s="8"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
       <c r="I14" s="3">
         <v>1</v>
       </c>
-      <c r="J14" s="10"/>
+      <c r="J14" s="8"/>
       <c r="K14" s="3">
         <v>0</v>
       </c>
@@ -1729,35 +1729,35 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="10"/>
+      <c r="R14" s="8"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5" t="s">
+      <c r="G15" s="26"/>
+      <c r="H15" s="26" t="s">
         <v>111</v>
       </c>
       <c r="I15" s="3">
         <v>1</v>
       </c>
-      <c r="J15" s="10"/>
+      <c r="J15" s="8"/>
       <c r="K15" s="3">
         <v>1</v>
       </c>
@@ -1779,21 +1779,21 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-      <c r="R15" s="10"/>
+      <c r="R15" s="8"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
       <c r="I16" s="3">
         <v>0</v>
       </c>
-      <c r="J16" s="10"/>
+      <c r="J16" s="8"/>
       <c r="K16" s="3">
         <v>0</v>
       </c>
@@ -1809,35 +1809,35 @@
       <c r="Q16" s="3">
         <v>0</v>
       </c>
-      <c r="R16" s="10"/>
+      <c r="R16" s="8"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5" t="s">
+      <c r="G17" s="26"/>
+      <c r="H17" s="26" t="s">
         <v>113</v>
       </c>
       <c r="I17" s="3">
         <v>0</v>
       </c>
-      <c r="J17" s="10">
+      <c r="J17" s="8">
         <v>1</v>
       </c>
       <c r="K17" s="3">
@@ -1861,21 +1861,21 @@
       <c r="Q17" s="3">
         <v>0</v>
       </c>
-      <c r="R17" s="10"/>
+      <c r="R17" s="8"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
       <c r="I18" s="3">
         <v>0</v>
       </c>
-      <c r="J18" s="10">
+      <c r="J18" s="8">
         <v>0</v>
       </c>
       <c r="K18" s="3">
@@ -1899,136 +1899,136 @@
       <c r="Q18" s="3">
         <v>0</v>
       </c>
-      <c r="R18" s="10"/>
+      <c r="R18" s="8"/>
     </row>
     <row r="19" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="26"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="27"/>
       <c r="C19" s="27"/>
-      <c r="D19" s="28"/>
+      <c r="D19" s="25"/>
       <c r="E19" s="27"/>
       <c r="F19" s="27"/>
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
-      <c r="I19" s="12">
-        <v>1</v>
-      </c>
-      <c r="J19" s="14">
-        <v>0</v>
-      </c>
-      <c r="K19" s="12">
-        <v>0</v>
-      </c>
-      <c r="L19" s="12">
-        <v>0</v>
-      </c>
-      <c r="M19" s="12" t="s">
+      <c r="I19" s="9">
+        <v>1</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0</v>
+      </c>
+      <c r="K19" s="9">
+        <v>0</v>
+      </c>
+      <c r="L19" s="9">
+        <v>0</v>
+      </c>
+      <c r="M19" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12">
-        <v>0</v>
-      </c>
-      <c r="R19" s="14"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9">
+        <v>0</v>
+      </c>
+      <c r="R19" s="11"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8" t="s">
+      <c r="G20" s="6"/>
+      <c r="H20" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="I20" s="8"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="8">
-        <v>0</v>
-      </c>
-      <c r="L20" s="8">
-        <v>1</v>
-      </c>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8">
-        <v>0</v>
-      </c>
-      <c r="O20" s="8">
-        <v>1</v>
-      </c>
-      <c r="P20" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="8">
-        <v>0</v>
-      </c>
-      <c r="R20" s="22">
+      <c r="I20" s="6"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="6">
+        <v>0</v>
+      </c>
+      <c r="L20" s="6">
+        <v>1</v>
+      </c>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6">
+        <v>0</v>
+      </c>
+      <c r="O20" s="6">
+        <v>1</v>
+      </c>
+      <c r="P20" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>0</v>
+      </c>
+      <c r="R20" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="12" t="s">
         <v>143</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12" t="s">
+      <c r="G21" s="9"/>
+      <c r="H21" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="I21" s="12"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="12">
-        <v>0</v>
-      </c>
-      <c r="L21" s="12">
-        <v>0</v>
-      </c>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12">
-        <v>0</v>
-      </c>
-      <c r="O21" s="12">
-        <v>1</v>
-      </c>
-      <c r="P21" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="12">
-        <v>1</v>
-      </c>
-      <c r="R21" s="14"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="9">
+        <v>0</v>
+      </c>
+      <c r="L21" s="9">
+        <v>0</v>
+      </c>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9">
+        <v>0</v>
+      </c>
+      <c r="O21" s="9">
+        <v>1</v>
+      </c>
+      <c r="P21" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="9">
+        <v>1</v>
+      </c>
+      <c r="R21" s="11"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="12" t="s">
         <v>144</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -2051,7 +2051,7 @@
         <v>116</v>
       </c>
       <c r="I22" s="3"/>
-      <c r="J22" s="10"/>
+      <c r="J22" s="8"/>
       <c r="K22" s="3" t="s">
         <v>132</v>
       </c>
@@ -2071,12 +2071,12 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="10">
+      <c r="R22" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="12" t="s">
         <v>145</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -2099,7 +2099,7 @@
         <v>117</v>
       </c>
       <c r="I23" s="3"/>
-      <c r="J23" s="10"/>
+      <c r="J23" s="8"/>
       <c r="K23" s="3">
         <v>0</v>
       </c>
@@ -2119,12 +2119,12 @@
       <c r="Q23" s="3">
         <v>0</v>
       </c>
-      <c r="R23" s="10">
+      <c r="R23" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="12" t="s">
         <v>146</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -2147,7 +2147,7 @@
         <v>117</v>
       </c>
       <c r="I24" s="3"/>
-      <c r="J24" s="10"/>
+      <c r="J24" s="8"/>
       <c r="K24" s="3">
         <v>0</v>
       </c>
@@ -2167,12 +2167,12 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-      <c r="R24" s="10">
+      <c r="R24" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="12" t="s">
         <v>147</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -2195,7 +2195,7 @@
         <v>118</v>
       </c>
       <c r="I25" s="3"/>
-      <c r="J25" s="10"/>
+      <c r="J25" s="8"/>
       <c r="K25" s="3">
         <v>0</v>
       </c>
@@ -2215,12 +2215,12 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-      <c r="R25" s="10">
+      <c r="R25" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="12" t="s">
         <v>148</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -2243,7 +2243,7 @@
         <v>119</v>
       </c>
       <c r="I26" s="3"/>
-      <c r="J26" s="10"/>
+      <c r="J26" s="8"/>
       <c r="K26" s="3">
         <v>0</v>
       </c>
@@ -2263,12 +2263,12 @@
       <c r="Q26" s="3">
         <v>0</v>
       </c>
-      <c r="R26" s="10">
+      <c r="R26" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="12" t="s">
         <v>149</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -2291,7 +2291,7 @@
         <v>120</v>
       </c>
       <c r="I27" s="3"/>
-      <c r="J27" s="10"/>
+      <c r="J27" s="8"/>
       <c r="K27" s="3">
         <v>0</v>
       </c>
@@ -2311,12 +2311,12 @@
       <c r="Q27" s="3">
         <v>0</v>
       </c>
-      <c r="R27" s="10">
+      <c r="R27" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="12" t="s">
         <v>150</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -2341,7 +2341,7 @@
         <v>121</v>
       </c>
       <c r="I28" s="3"/>
-      <c r="J28" s="10"/>
+      <c r="J28" s="8"/>
       <c r="K28" s="3">
         <v>0</v>
       </c>
@@ -2361,12 +2361,12 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-      <c r="R28" s="10">
+      <c r="R28" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="12" t="s">
         <v>151</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -2391,7 +2391,7 @@
         <v>122</v>
       </c>
       <c r="I29" s="3"/>
-      <c r="J29" s="10"/>
+      <c r="J29" s="8"/>
       <c r="K29" s="3">
         <v>0</v>
       </c>
@@ -2411,112 +2411,112 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="10">
+      <c r="R29" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E30" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="F30" s="12" t="s">
+      <c r="F30" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="G30" s="12" t="s">
+      <c r="G30" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="H30" s="12" t="s">
+      <c r="H30" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="I30" s="12"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="12">
-        <v>0</v>
-      </c>
-      <c r="L30" s="12">
-        <v>1</v>
-      </c>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12">
-        <v>0</v>
-      </c>
-      <c r="O30" s="12">
-        <v>1</v>
-      </c>
-      <c r="P30" s="12">
+      <c r="I30" s="9"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="9">
+        <v>0</v>
+      </c>
+      <c r="L30" s="9">
+        <v>1</v>
+      </c>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9">
+        <v>0</v>
+      </c>
+      <c r="O30" s="9">
+        <v>1</v>
+      </c>
+      <c r="P30" s="9">
         <v>9</v>
       </c>
-      <c r="Q30" s="12">
-        <v>0</v>
-      </c>
-      <c r="R30" s="14">
+      <c r="Q30" s="9">
+        <v>0</v>
+      </c>
+      <c r="R30" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="G31" s="8" t="s">
+      <c r="G31" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="H31" s="8" t="s">
+      <c r="H31" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="I31" s="8"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="8">
-        <v>0</v>
-      </c>
-      <c r="L31" s="8">
-        <v>1</v>
-      </c>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8">
-        <v>0</v>
-      </c>
-      <c r="O31" s="8">
-        <v>0</v>
-      </c>
-      <c r="P31" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="8">
-        <v>0</v>
-      </c>
-      <c r="R31" s="22">
+      <c r="I31" s="6"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="6">
+        <v>0</v>
+      </c>
+      <c r="L31" s="6">
+        <v>1</v>
+      </c>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6">
+        <v>0</v>
+      </c>
+      <c r="O31" s="6">
+        <v>0</v>
+      </c>
+      <c r="P31" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="6">
+        <v>0</v>
+      </c>
+      <c r="R31" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="12" t="s">
         <v>154</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -2541,7 +2541,7 @@
         <v>124</v>
       </c>
       <c r="I32" s="3"/>
-      <c r="J32" s="10"/>
+      <c r="J32" s="8"/>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -2561,12 +2561,12 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-      <c r="R32" s="10">
+      <c r="R32" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="12" t="s">
         <v>155</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -2591,7 +2591,7 @@
         <v>125</v>
       </c>
       <c r="I33" s="3"/>
-      <c r="J33" s="10"/>
+      <c r="J33" s="8"/>
       <c r="K33" s="3">
         <v>0</v>
       </c>
@@ -2611,12 +2611,12 @@
       <c r="Q33" s="3">
         <v>0</v>
       </c>
-      <c r="R33" s="10">
+      <c r="R33" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="12" t="s">
         <v>156</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -2641,7 +2641,7 @@
         <v>125</v>
       </c>
       <c r="I34" s="3"/>
-      <c r="J34" s="10"/>
+      <c r="J34" s="8"/>
       <c r="K34" s="3">
         <v>0</v>
       </c>
@@ -2661,12 +2661,12 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-      <c r="R34" s="10">
+      <c r="R34" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="12" t="s">
         <v>157</v>
       </c>
       <c r="B35" s="3" t="s">
@@ -2691,7 +2691,7 @@
         <v>126</v>
       </c>
       <c r="I35" s="3"/>
-      <c r="J35" s="10"/>
+      <c r="J35" s="8"/>
       <c r="K35" s="3">
         <v>0</v>
       </c>
@@ -2711,12 +2711,12 @@
       <c r="Q35" s="3">
         <v>0</v>
       </c>
-      <c r="R35" s="10">
+      <c r="R35" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="12" t="s">
         <v>158</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -2741,7 +2741,7 @@
         <v>127</v>
       </c>
       <c r="I36" s="3"/>
-      <c r="J36" s="10"/>
+      <c r="J36" s="8"/>
       <c r="K36" s="3">
         <v>0</v>
       </c>
@@ -2761,12 +2761,12 @@
       <c r="Q36" s="3">
         <v>0</v>
       </c>
-      <c r="R36" s="10">
+      <c r="R36" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="12" t="s">
         <v>159</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -2791,7 +2791,7 @@
         <v>128</v>
       </c>
       <c r="I37" s="3"/>
-      <c r="J37" s="10"/>
+      <c r="J37" s="8"/>
       <c r="K37" s="3">
         <v>0</v>
       </c>
@@ -2811,12 +2811,12 @@
       <c r="Q37" s="3">
         <v>0</v>
       </c>
-      <c r="R37" s="10">
+      <c r="R37" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="12" t="s">
         <v>160</v>
       </c>
       <c r="B38" s="3" t="s">
@@ -2841,7 +2841,7 @@
         <v>129</v>
       </c>
       <c r="I38" s="3"/>
-      <c r="J38" s="10"/>
+      <c r="J38" s="8"/>
       <c r="K38" s="3">
         <v>0</v>
       </c>
@@ -2861,12 +2861,12 @@
       <c r="Q38" s="3">
         <v>0</v>
       </c>
-      <c r="R38" s="10">
+      <c r="R38" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="12" t="s">
         <v>161</v>
       </c>
       <c r="B39" s="3" t="s">
@@ -2891,7 +2891,7 @@
         <v>130</v>
       </c>
       <c r="I39" s="3"/>
-      <c r="J39" s="10"/>
+      <c r="J39" s="8"/>
       <c r="K39" s="3">
         <v>0</v>
       </c>
@@ -2911,62 +2911,96 @@
       <c r="Q39" s="3">
         <v>0</v>
       </c>
-      <c r="R39" s="10">
+      <c r="R39" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D40" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E40" s="12" t="s">
+      <c r="E40" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="F40" s="12" t="s">
+      <c r="F40" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="G40" s="12" t="s">
+      <c r="G40" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="H40" s="12" t="s">
+      <c r="H40" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="I40" s="12"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="12">
-        <v>0</v>
-      </c>
-      <c r="L40" s="12">
-        <v>1</v>
-      </c>
-      <c r="M40" s="12"/>
-      <c r="N40" s="12">
-        <v>0</v>
-      </c>
-      <c r="O40" s="12">
-        <v>0</v>
-      </c>
-      <c r="P40" s="12">
+      <c r="I40" s="9"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="9">
+        <v>0</v>
+      </c>
+      <c r="L40" s="9">
+        <v>1</v>
+      </c>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9">
+        <v>0</v>
+      </c>
+      <c r="O40" s="9">
+        <v>0</v>
+      </c>
+      <c r="P40" s="9">
         <v>9</v>
       </c>
-      <c r="Q40" s="12">
-        <v>0</v>
-      </c>
-      <c r="R40" s="14">
+      <c r="Q40" s="9">
+        <v>0</v>
+      </c>
+      <c r="R40" s="11">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E12:E14"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A12:A14"/>
@@ -2977,44 +3011,10 @@
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="C12:C14"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D10:D11"/>
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
